--- a/biology/Botanique/Polanisie_à_douze_étamines/Polanisie_à_douze_étamines.xlsx
+++ b/biology/Botanique/Polanisie_à_douze_étamines/Polanisie_à_douze_étamines.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Polanisie_%C3%A0_douze_%C3%A9tamines</t>
+          <t>Polanisie_à_douze_étamines</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Polanisia dodecandra est une espèce de plantes à fleurs de la famille des Capparaceae selon la classification Cronquist, des Cleomaceae selon la classification phylogénétique. Elle est originaire des États-Unis et du nord du Mexique.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Polanisie_%C3%A0_douze_%C3%A9tamines</t>
+          <t>Polanisie_à_douze_étamines</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,12 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Cette plante de 10 à 80 cm de hauteur, au tiges ramifiées, possède une odeur forte. Elle est couverte de poils courts et collants. Les feuilles, composées palmées, mesurent entre 1,5 et 4 cm de long, et possèdent trois folioles lancéolés[1].
-Appareil reproducteur
-La floraison a lieu entre mai et octobre.
-L'inflorescence est une grappe de fleurs de couleur blanche ou crème. Chaque fleur possède 4 pétales de 6 à 20 mm de longueur, très étroits à leur base, ont l'extrémité entaillée d'une encoche. Les étamines, roses ou violacées, sont de longueur inégale (entre 6 et 20 mm), et dépasse largement de la corolle[1].
-Le fruit est une capsule de 2 à 7,5 cm de long, grossièrement cylindrique, et tenue en position érigée.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante de 10 à 80 cm de hauteur, au tiges ramifiées, possède une odeur forte. Elle est couverte de poils courts et collants. Les feuilles, composées palmées, mesurent entre 1,5 et 4 cm de long, et possèdent trois folioles lancéolés.
 </t>
         </is>
       </c>
@@ -529,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Polanisie_%C3%A0_douze_%C3%A9tamines</t>
+          <t>Polanisie_à_douze_étamines</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +557,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description morphologique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu entre mai et octobre.
+L'inflorescence est une grappe de fleurs de couleur blanche ou crème. Chaque fleur possède 4 pétales de 6 à 20 mm de longueur, très étroits à leur base, ont l'extrémité entaillée d'une encoche. Les étamines, roses ou violacées, sont de longueur inégale (entre 6 et 20 mm), et dépasse largement de la corolle.
+Le fruit est une capsule de 2 à 7,5 cm de long, grossièrement cylindrique, et tenue en position érigée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Polanisie_à_douze_étamines</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Polanisie_%C3%A0_douze_%C3%A9tamines</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante pousse sur les pentes et plaines arides ou désertiques, parfois au sein de l'association végétale Pinus-Juniperus.
 Son aire de répartition couvre le centre et l'ouest des États-Unis et le nord du Mexique. Elle s'étend, au nord, de l'Oregon au Minnesota et vers le sud, jusqu'en Californie, en Arizona, au Texas et dans le nord du Mexique.
